--- a/tests/department_reports/check_arguments/archive_formats_by_aip_2023-08.xlsx
+++ b/tests/department_reports/check_arguments/archive_formats_by_aip_2023-08.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amhan\Documents\GitHub\format-report\tests\department_reports\check_arguments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F67B69D-9FE7-4F82-A464-E1F3794A7180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5646F34-906E-4C8F-96B3-7EE17F5663B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31530" yWindow="660" windowWidth="19425" windowHeight="15225"/>
+    <workbookView xWindow="21165" yWindow="1185" windowWidth="22245" windowHeight="20700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="archive_formats_by_aip_2023-08" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
   <si>
     <t>Group</t>
   </si>
@@ -98,12 +98,51 @@
   </si>
   <si>
     <t>fmt/43</t>
+  </si>
+  <si>
+    <t>NARA_Format Name</t>
+  </si>
+  <si>
+    <t>NARA_PRONOM URL</t>
+  </si>
+  <si>
+    <t>NARA_Risk Level</t>
+  </si>
+  <si>
+    <t>NARA_Proposed Preservation Plan</t>
+  </si>
+  <si>
+    <t>NARA_Match_Type</t>
+  </si>
+  <si>
+    <t>Exchangeable Image File Format Compressed 2.1</t>
+  </si>
+  <si>
+    <t>https://www.nationalarchives.gov.uk/pronom/x-fmt/390</t>
+  </si>
+  <si>
+    <t>Low Risk</t>
+  </si>
+  <si>
+    <t>Retain</t>
+  </si>
+  <si>
+    <t>PRONOM</t>
+  </si>
+  <si>
+    <t>JPEG File Interchange Format 1.01</t>
+  </si>
+  <si>
+    <t>https://www.nationalarchives.gov.uk/pronom/fmt/43</t>
+  </si>
+  <si>
+    <t>PRONOM and Version</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -937,14 +976,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -978,8 +1019,23 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1013,8 +1069,23 @@
       <c r="K2" t="s">
         <v>20</v>
       </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1048,8 +1119,23 @@
       <c r="K3" t="s">
         <v>20</v>
       </c>
+      <c r="L3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1082,6 +1168,21 @@
       </c>
       <c r="K4" t="s">
         <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/tests/department_reports/check_arguments/archive_formats_by_aip_2023-08.xlsx
+++ b/tests/department_reports/check_arguments/archive_formats_by_aip_2023-08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amhan\Documents\GitHub\format-report\tests\department_reports\check_arguments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5646F34-906E-4C8F-96B3-7EE17F5663B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15C5E0E-73B3-4286-9470-621A14689ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21165" yWindow="1185" windowWidth="22245" windowHeight="20700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="archive_formats_by_aip_2023-08" sheetId="1" r:id="rId1"/>
@@ -31,30 +31,6 @@
     <t>AIP</t>
   </si>
   <si>
-    <t>Format Type</t>
-  </si>
-  <si>
-    <t>Format Standardized Name</t>
-  </si>
-  <si>
-    <t>Format Identification</t>
-  </si>
-  <si>
-    <t>Format Name</t>
-  </si>
-  <si>
-    <t>Format Version</t>
-  </si>
-  <si>
-    <t>Registry Name</t>
-  </si>
-  <si>
-    <t>Registry Key</t>
-  </si>
-  <si>
-    <t>Format Note</t>
-  </si>
-  <si>
     <t>hargrett</t>
   </si>
   <si>
@@ -100,18 +76,6 @@
     <t>fmt/43</t>
   </si>
   <si>
-    <t>NARA_Format Name</t>
-  </si>
-  <si>
-    <t>NARA_PRONOM URL</t>
-  </si>
-  <si>
-    <t>NARA_Risk Level</t>
-  </si>
-  <si>
-    <t>NARA_Proposed Preservation Plan</t>
-  </si>
-  <si>
     <t>NARA_Match_Type</t>
   </si>
   <si>
@@ -137,6 +101,42 @@
   </si>
   <si>
     <t>PRONOM and Version</t>
+  </si>
+  <si>
+    <t>Format_Type</t>
+  </si>
+  <si>
+    <t>Format_Standardized_Name</t>
+  </si>
+  <si>
+    <t>Format_Identification</t>
+  </si>
+  <si>
+    <t>Format_Name</t>
+  </si>
+  <si>
+    <t>Format_Version</t>
+  </si>
+  <si>
+    <t>Registry_Name</t>
+  </si>
+  <si>
+    <t>Registry_Key</t>
+  </si>
+  <si>
+    <t>Format_Note</t>
+  </si>
+  <si>
+    <t>NARA_Format_Name</t>
+  </si>
+  <si>
+    <t>NARA_PRONOM_URL</t>
+  </si>
+  <si>
+    <t>NARA_Risk_Level</t>
+  </si>
+  <si>
+    <t>NARA_Proposed_Preservation_Plan</t>
   </si>
 </sst>
 </file>
@@ -980,7 +980,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,193 +996,193 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="L1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="O1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="P1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H2">
         <v>2.1</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <v>2.1</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
         <v>19</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>20</v>
       </c>
-      <c r="L3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
-      </c>
       <c r="N3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>1.01</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" t="s">
         <v>25</v>
       </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" t="s">
-        <v>37</v>
-      </c>
       <c r="N4" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
